--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Rbp4-Stra6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Rbp4-Stra6.xlsx
@@ -76,13 +76,13 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
   <si>
     <t>Rbp4</t>
@@ -525,25 +525,25 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>4.653109333333333</v>
+        <v>0.1534395</v>
       </c>
       <c r="H2">
-        <v>13.959328</v>
+        <v>0.306879</v>
       </c>
       <c r="I2">
-        <v>0.981686136247225</v>
+        <v>0.03018747122083281</v>
       </c>
       <c r="J2">
-        <v>0.9867633043798142</v>
+        <v>0.02070864585407686</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,22 +558,22 @@
         <v>1.018632</v>
       </c>
       <c r="O2">
-        <v>0.1965227220570919</v>
+        <v>0.26800184538179</v>
       </c>
       <c r="P2">
-        <v>0.2684097734345912</v>
+        <v>0.3544995070363471</v>
       </c>
       <c r="Q2">
-        <v>1.579935355477333</v>
+        <v>0.052099461588</v>
       </c>
       <c r="R2">
-        <v>14.219418199296</v>
+        <v>0.312596769528</v>
       </c>
       <c r="S2">
-        <v>0.1929236317010138</v>
+        <v>0.00809029799459287</v>
       </c>
       <c r="T2">
-        <v>0.2648569149621545</v>
+        <v>0.007341204746660538</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,25 +587,25 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>4.653109333333333</v>
+        <v>0.1534395</v>
       </c>
       <c r="H3">
-        <v>13.959328</v>
+        <v>0.306879</v>
       </c>
       <c r="I3">
-        <v>0.981686136247225</v>
+        <v>0.03018747122083281</v>
       </c>
       <c r="J3">
-        <v>0.9867633043798142</v>
+        <v>0.02070864585407686</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.3882155</v>
+        <v>0.9274024999999999</v>
       </c>
       <c r="N3">
-        <v>2.776431</v>
+        <v>1.854805</v>
       </c>
       <c r="O3">
-        <v>0.8034772779429081</v>
+        <v>0.7319981546182099</v>
       </c>
       <c r="P3">
-        <v>0.7315902265654087</v>
+        <v>0.6455004929636529</v>
       </c>
       <c r="Q3">
-        <v>6.459518499727999</v>
+        <v>0.14230017589875</v>
       </c>
       <c r="R3">
-        <v>38.75711099836799</v>
+        <v>0.569200703595</v>
       </c>
       <c r="S3">
-        <v>0.7887625045462112</v>
+        <v>0.02209717322623994</v>
       </c>
       <c r="T3">
-        <v>0.7219063894176596</v>
+        <v>0.01336744110741632</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,25 +649,25 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.07316449999999999</v>
+        <v>4.653109333333333</v>
       </c>
       <c r="H4">
-        <v>0.146329</v>
+        <v>13.959328</v>
       </c>
       <c r="I4">
-        <v>0.01543582369770094</v>
+        <v>0.9154461796824711</v>
       </c>
       <c r="J4">
-        <v>0.01034377067195454</v>
+        <v>0.9419959655528692</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>1.018632</v>
       </c>
       <c r="O4">
-        <v>0.1965227220570919</v>
+        <v>0.26800184538179</v>
       </c>
       <c r="P4">
-        <v>0.2684097734345912</v>
+        <v>0.3544995070363471</v>
       </c>
       <c r="Q4">
-        <v>0.024842566988</v>
+        <v>1.579935355477333</v>
       </c>
       <c r="R4">
-        <v>0.149055401928</v>
+        <v>14.219418199296</v>
       </c>
       <c r="S4">
-        <v>0.003033490090265554</v>
+        <v>0.245341265502612</v>
       </c>
       <c r="T4">
-        <v>0.002776369142518687</v>
+        <v>0.33393710541872</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,25 +711,25 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.07316449999999999</v>
+        <v>4.653109333333333</v>
       </c>
       <c r="H5">
-        <v>0.146329</v>
+        <v>13.959328</v>
       </c>
       <c r="I5">
-        <v>0.01543582369770094</v>
+        <v>0.9154461796824711</v>
       </c>
       <c r="J5">
-        <v>0.01034377067195454</v>
+        <v>0.9419959655528692</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.3882155</v>
+        <v>0.9274024999999999</v>
       </c>
       <c r="N5">
-        <v>2.776431</v>
+        <v>1.854805</v>
       </c>
       <c r="O5">
-        <v>0.8034772779429081</v>
+        <v>0.7319981546182099</v>
       </c>
       <c r="P5">
-        <v>0.7315902265654087</v>
+        <v>0.6455004929636529</v>
       </c>
       <c r="Q5">
-        <v>0.10156809294975</v>
+        <v>4.315305228506666</v>
       </c>
       <c r="R5">
-        <v>0.4062723717989999</v>
+        <v>25.89183137103999</v>
       </c>
       <c r="S5">
-        <v>0.01240233360743539</v>
+        <v>0.6701049141798591</v>
       </c>
       <c r="T5">
-        <v>0.007567401529435852</v>
+        <v>0.6080588601341492</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,25 +773,25 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.01364166666666667</v>
+        <v>0.276338</v>
       </c>
       <c r="H6">
-        <v>0.040925</v>
+        <v>0.5526759999999999</v>
       </c>
       <c r="I6">
-        <v>0.002878040055074119</v>
+        <v>0.05436634909669606</v>
       </c>
       <c r="J6">
-        <v>0.002892924948231312</v>
+        <v>0.03729538859305388</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>1.018632</v>
       </c>
       <c r="O6">
-        <v>0.1965227220570919</v>
+        <v>0.26800184538179</v>
       </c>
       <c r="P6">
-        <v>0.2684097734345912</v>
+        <v>0.3544995070363471</v>
       </c>
       <c r="Q6">
-        <v>0.004631946066666667</v>
+        <v>0.09382890987199999</v>
       </c>
       <c r="R6">
-        <v>0.0416875146</v>
+        <v>0.5629734592319999</v>
       </c>
       <c r="S6">
-        <v>0.0005656002658125085</v>
+        <v>0.01457028188458516</v>
       </c>
       <c r="T6">
-        <v>0.000776489329918043</v>
+        <v>0.0132211968709666</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,25 +835,25 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.01364166666666667</v>
+        <v>0.276338</v>
       </c>
       <c r="H7">
-        <v>0.040925</v>
+        <v>0.5526759999999999</v>
       </c>
       <c r="I7">
-        <v>0.002878040055074119</v>
+        <v>0.05436634909669606</v>
       </c>
       <c r="J7">
-        <v>0.002892924948231312</v>
+        <v>0.03729538859305388</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.3882155</v>
+        <v>0.9274024999999999</v>
       </c>
       <c r="N7">
-        <v>2.776431</v>
+        <v>1.854805</v>
       </c>
       <c r="O7">
-        <v>0.8034772779429081</v>
+        <v>0.7319981546182099</v>
       </c>
       <c r="P7">
-        <v>0.7315902265654087</v>
+        <v>0.6455004929636529</v>
       </c>
       <c r="Q7">
-        <v>0.0189375731125</v>
+        <v>0.2562765520449999</v>
       </c>
       <c r="R7">
-        <v>0.113625438675</v>
+        <v>1.02510620818</v>
       </c>
       <c r="S7">
-        <v>0.00231243978926161</v>
+        <v>0.0397960672121109</v>
       </c>
       <c r="T7">
-        <v>0.002116435618313269</v>
+        <v>0.02407419172208727</v>
       </c>
     </row>
   </sheetData>
